--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Pf4</t>
+  </si>
+  <si>
+    <t>Sdc2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pf4</t>
-  </si>
-  <si>
-    <t>Sdc2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>26.70522333333333</v>
+        <v>0.468189</v>
       </c>
       <c r="H2">
-        <v>80.11566999999999</v>
+        <v>1.404567</v>
       </c>
       <c r="I2">
-        <v>0.2696387810903721</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="J2">
-        <v>0.269638781090372</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N2">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O2">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P2">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q2">
-        <v>17.74851397086111</v>
+        <v>0.454657869711</v>
       </c>
       <c r="R2">
-        <v>159.73662573775</v>
+        <v>4.091920827399</v>
       </c>
       <c r="S2">
-        <v>0.001487207705446993</v>
+        <v>3.139387370258697E-05</v>
       </c>
       <c r="T2">
-        <v>0.001487207705446992</v>
+        <v>3.139387370258697E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>26.70522333333333</v>
+        <v>0.468189</v>
       </c>
       <c r="H3">
-        <v>80.11566999999999</v>
+        <v>1.404567</v>
       </c>
       <c r="I3">
-        <v>0.2696387810903721</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="J3">
-        <v>0.269638781090372</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P3">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q3">
-        <v>2292.003138732027</v>
+        <v>40.18280035053601</v>
       </c>
       <c r="R3">
-        <v>20628.02824858824</v>
+        <v>361.645203154824</v>
       </c>
       <c r="S3">
-        <v>0.1920546550785729</v>
+        <v>0.002774600074607428</v>
       </c>
       <c r="T3">
-        <v>0.1920546550785728</v>
+        <v>0.002774600074607427</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>26.70522333333333</v>
+        <v>0.468189</v>
       </c>
       <c r="H4">
-        <v>80.11566999999999</v>
+        <v>1.404567</v>
       </c>
       <c r="I4">
-        <v>0.2696387810903721</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="J4">
-        <v>0.269638781090372</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N4">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O4">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P4">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q4">
-        <v>907.9009137354022</v>
+        <v>16.971460624311</v>
       </c>
       <c r="R4">
-        <v>8171.10822361862</v>
+        <v>152.743145618799</v>
       </c>
       <c r="S4">
-        <v>0.07607607244789215</v>
+        <v>0.001171869941955955</v>
       </c>
       <c r="T4">
-        <v>0.07607607244789212</v>
+        <v>0.001171869941955954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>26.70522333333333</v>
+        <v>0.468189</v>
       </c>
       <c r="H5">
-        <v>80.11566999999999</v>
+        <v>1.404567</v>
       </c>
       <c r="I5">
-        <v>0.2696387810903721</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="J5">
-        <v>0.269638781090372</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N5">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O5">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P5">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q5">
-        <v>0.2487769588322223</v>
+        <v>0.06993432730799999</v>
       </c>
       <c r="R5">
-        <v>2.23899262949</v>
+        <v>0.629408945772</v>
       </c>
       <c r="S5">
-        <v>2.084585846005899E-05</v>
+        <v>4.828926507701914E-06</v>
       </c>
       <c r="T5">
-        <v>2.084585846005898E-05</v>
+        <v>4.828926507701914E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G6">
-        <v>0.03526433333333334</v>
+        <v>117.0877013333333</v>
       </c>
       <c r="H6">
-        <v>0.105793</v>
+        <v>351.263104</v>
       </c>
       <c r="I6">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="J6">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N6">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O6">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P6">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q6">
-        <v>0.02343696980277778</v>
+        <v>113.7037496770987</v>
       </c>
       <c r="R6">
-        <v>0.210932728225</v>
+        <v>1023.333747093888</v>
       </c>
       <c r="S6">
-        <v>1.963862560000481E-06</v>
+        <v>0.00785118084317421</v>
       </c>
       <c r="T6">
-        <v>1.96386256000048E-06</v>
+        <v>0.00785118084317421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G7">
-        <v>0.03526433333333334</v>
+        <v>117.0877013333333</v>
       </c>
       <c r="H7">
-        <v>0.105793</v>
+        <v>351.263104</v>
       </c>
       <c r="I7">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="J7">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P7">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q7">
-        <v>3.026597519010667</v>
+        <v>10049.1718647395</v>
       </c>
       <c r="R7">
-        <v>27.239377671096</v>
+        <v>90442.54678265548</v>
       </c>
       <c r="S7">
-        <v>0.0002536087899499244</v>
+        <v>0.6938897429351797</v>
       </c>
       <c r="T7">
-        <v>0.0002536087899499244</v>
+        <v>0.6938897429351796</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G8">
-        <v>0.03526433333333334</v>
+        <v>117.0877013333333</v>
       </c>
       <c r="H8">
-        <v>0.105793</v>
+        <v>351.263104</v>
       </c>
       <c r="I8">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="J8">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N8">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O8">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P8">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q8">
-        <v>1.198886077677556</v>
+        <v>4244.331483161188</v>
       </c>
       <c r="R8">
-        <v>10.789974699098</v>
+        <v>38198.98334845069</v>
       </c>
       <c r="S8">
-        <v>0.0001004586984353979</v>
+        <v>0.2930687345607211</v>
       </c>
       <c r="T8">
-        <v>0.0001004586984353979</v>
+        <v>0.293068734560721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G9">
-        <v>0.03526433333333334</v>
+        <v>117.0877013333333</v>
       </c>
       <c r="H9">
-        <v>0.105793</v>
+        <v>351.263104</v>
       </c>
       <c r="I9">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="J9">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N9">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O9">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P9">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q9">
-        <v>0.0003285107745555556</v>
+        <v>17.48962412356266</v>
       </c>
       <c r="R9">
-        <v>0.002956596971000001</v>
+        <v>157.406617112064</v>
       </c>
       <c r="S9">
-        <v>2.752702316619234E-08</v>
+        <v>0.001207648844151439</v>
       </c>
       <c r="T9">
-        <v>2.752702316619234E-08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H10">
-        <v>216.900745</v>
-      </c>
-      <c r="I10">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J10">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.6646083333333334</v>
-      </c>
-      <c r="N10">
-        <v>1.993825</v>
-      </c>
-      <c r="O10">
-        <v>0.005515555660921567</v>
-      </c>
-      <c r="P10">
-        <v>0.005515555660921566</v>
-      </c>
-      <c r="Q10">
-        <v>48.05134754440277</v>
-      </c>
-      <c r="R10">
-        <v>432.4621278996249</v>
-      </c>
-      <c r="S10">
-        <v>0.004026384092914573</v>
-      </c>
-      <c r="T10">
-        <v>0.004026384092914573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H11">
-        <v>216.900745</v>
-      </c>
-      <c r="I11">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J11">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>85.826024</v>
-      </c>
-      <c r="N11">
-        <v>257.478072</v>
-      </c>
-      <c r="O11">
-        <v>0.7122664414292983</v>
-      </c>
-      <c r="P11">
-        <v>0.7122664414292982</v>
-      </c>
-      <c r="Q11">
-        <v>6205.242848662627</v>
-      </c>
-      <c r="R11">
-        <v>55847.18563796363</v>
-      </c>
-      <c r="S11">
-        <v>0.5199581775607754</v>
-      </c>
-      <c r="T11">
-        <v>0.5199581775607753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H12">
-        <v>216.900745</v>
-      </c>
-      <c r="I12">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J12">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>33.99712866666667</v>
-      </c>
-      <c r="N12">
-        <v>101.991386</v>
-      </c>
-      <c r="O12">
-        <v>0.2821406925971621</v>
-      </c>
-      <c r="P12">
-        <v>0.282140692597162</v>
-      </c>
-      <c r="Q12">
-        <v>2458.000845220286</v>
-      </c>
-      <c r="R12">
-        <v>22122.00760698257</v>
-      </c>
-      <c r="S12">
-        <v>0.2059641614508345</v>
-      </c>
-      <c r="T12">
-        <v>0.2059641614508345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H13">
-        <v>216.900745</v>
-      </c>
-      <c r="I13">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J13">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.009315666666666668</v>
-      </c>
-      <c r="N13">
-        <v>0.027947</v>
-      </c>
-      <c r="O13">
-        <v>7.73103126180959E-05</v>
-      </c>
-      <c r="P13">
-        <v>7.731031261809588E-05</v>
-      </c>
-      <c r="Q13">
-        <v>0.6735250133905556</v>
-      </c>
-      <c r="R13">
-        <v>6.061725120515</v>
-      </c>
-      <c r="S13">
-        <v>5.643692713487071E-05</v>
-      </c>
-      <c r="T13">
-        <v>5.64369271348707E-05</v>
+        <v>0.001207648844151439</v>
       </c>
     </row>
   </sheetData>
